--- a/Sounds/3조_DID_사운드정리.xlsx
+++ b/Sounds/3조_DID_사운드정리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\팀플\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Team3Resource\Sounds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A058F1-7580-4443-83AF-73F22DB3CDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7AFD66-BC38-4431-91A5-9D7135DE38E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="180" windowWidth="16035" windowHeight="14490" xr2:uid="{F01E65A7-9F96-4740-A68D-BB54CB1432ED}"/>
+    <workbookView xWindow="15675" yWindow="975" windowWidth="13065" windowHeight="13215" xr2:uid="{F01E65A7-9F96-4740-A68D-BB54CB1432ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>사운드 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,14 @@
   </si>
   <si>
     <t>전등 깜빡이는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글씨 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글씨쓰는 소리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,27 +644,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,9 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EF6CF6-AB9D-8B40-8154-A9A84ACDEC93}">
-  <dimension ref="B2:H76"/>
+  <dimension ref="B2:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1054,8 +1062,8 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1069,21 +1077,21 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="4" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1095,8 +1103,8 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1106,8 +1114,8 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
@@ -1117,14 +1125,14 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1132,10 +1140,10 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1143,10 +1151,10 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1154,10 +1162,10 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1165,10 +1173,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1176,10 +1184,10 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,10 +1195,10 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1198,12 +1206,12 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="14" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1211,10 +1219,10 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1222,10 +1230,10 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1233,10 +1241,10 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1244,10 +1252,10 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1255,10 +1263,10 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1266,10 +1274,10 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1277,10 +1285,10 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,10 +1296,10 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,10 +1307,10 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1310,10 +1318,10 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1329,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="29" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1340,7 +1348,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="6" t="s">
         <v>2</v>
       </c>
@@ -1355,69 +1363,69 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="21"/>
-      <c r="C32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="21"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="21"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="1" t="s">
@@ -1426,56 +1434,56 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="21"/>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="21"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="21"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7" t="s">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="21"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>40</v>
@@ -1484,496 +1492,494 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="21"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B41" s="21"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5" t="s">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="21"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="2" t="s">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="6" t="s">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+    <row r="45" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>40</v>
+      <c r="D45" s="14"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="6"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="F46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="21"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="6" t="s">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="21"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="21"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="7" t="s">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B50" s="21"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="21"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="5" t="s">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="21"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6" t="s">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="21"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="21"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="21"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="E55" s="6"/>
       <c r="F55" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="21"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="21"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E57" s="9"/>
       <c r="F57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="21"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="21"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="7" t="s">
-        <v>13</v>
+      <c r="E59" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="21"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="8"/>
+      <c r="E60" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="21"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="E61" s="9"/>
       <c r="F61" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="21"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="6"/>
+      <c r="E62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="7"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="2" t="s">
+      <c r="E63" s="6"/>
+      <c r="F63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="21"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="21"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="21"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="F65" s="9"/>
       <c r="G65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="21"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="G66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="21"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="F67" s="9"/>
       <c r="G67" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="21"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G68" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="21"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="F69" s="9"/>
       <c r="G69" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="21"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G70" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="21"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F71" s="9"/>
       <c r="G71" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="21"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="21"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="21"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="21"/>
+      <c r="B75" s="7"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="21"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H76" s="1"/>
+      <c r="H77" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C36:C76"/>
-    <mergeCell ref="B29:B76"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D52:D61"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
+  <mergeCells count="41">
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D63:E77"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="D39:D52"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="B3:B26"/>
     <mergeCell ref="C6:C8"/>
@@ -1986,12 +1992,28 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D16:E26"/>
     <mergeCell ref="D9:E15"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D62:E76"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="D38:D51"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C37:C77"/>
+    <mergeCell ref="B29:B77"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D53:D62"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D35:D36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
